--- a/Players/Kai/cost_value_hire.xlsx
+++ b/Players/Kai/cost_value_hire.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Ld</t>
   </si>
   <si>
-    <t xml:space="preserve">SkillWertungAddition</t>
+    <t xml:space="preserve">Pers. Bewertung</t>
   </si>
   <si>
     <t xml:space="preserve">Hire</t>
@@ -298,7 +298,7 @@
   <dimension ref="B2:W14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>80</v>
@@ -494,7 +494,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>30</v>
       </c>
@@ -529,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>90</v>
@@ -599,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">3*N3</f>
@@ -636,7 +636,7 @@
         <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>36</v>
       </c>
@@ -671,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>60</v>
@@ -706,7 +706,7 @@
         <v>0.416666666666667</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>39</v>
       </c>
@@ -741,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>0.428571428571429</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>42</v>
       </c>
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>20</v>
@@ -846,7 +846,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>44</v>
       </c>
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>40</v>

--- a/Players/Kai/cost_value_hire.xlsx
+++ b/Players/Kai/cost_value_hire.xlsx
@@ -176,6 +176,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -197,18 +198,21 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,10 +299,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:W14"/>
+  <dimension ref="B2:W21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,18 +310,18 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="3.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="26.85"/>
@@ -478,16 +482,16 @@
         <v>29</v>
       </c>
       <c r="S8" s="0" t="n">
-        <f aca="false">SUM(C8:M8)</f>
-        <v>54</v>
+        <f aca="false">SUM(C8:J8)+L8-7+K8</f>
+        <v>32</v>
       </c>
       <c r="T8" s="4" t="n">
         <f aca="false">S8/N8</f>
-        <v>0.675</v>
+        <v>0.4</v>
       </c>
       <c r="U8" s="4" t="n">
         <f aca="false">S8/O8</f>
-        <v>1.8</v>
+        <v>1.06666666666667</v>
       </c>
       <c r="V8" s="4" t="n">
         <f aca="false">O8/N8</f>
@@ -548,16 +552,16 @@
         <v>32</v>
       </c>
       <c r="S9" s="0" t="n">
-        <f aca="false">SUM(C9:M9)</f>
-        <v>60</v>
+        <f aca="false">SUM(C9:J9)+L9-7+K9</f>
+        <v>33</v>
       </c>
       <c r="T9" s="4" t="n">
         <f aca="false">S9/N9</f>
-        <v>0.666666666666667</v>
+        <v>0.366666666666667</v>
       </c>
       <c r="U9" s="4" t="n">
         <f aca="false">S9/O9</f>
-        <v>1.71428571428571</v>
+        <v>0.942857142857143</v>
       </c>
       <c r="V9" s="4" t="n">
         <f aca="false">O9/N9</f>
@@ -593,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>8</v>
@@ -620,16 +624,16 @@
         <v>35</v>
       </c>
       <c r="S10" s="0" t="n">
-        <f aca="false">SUM(C10:M10)</f>
-        <v>59</v>
+        <f aca="false">SUM(C10:J10)+L10-7+K10</f>
+        <v>28</v>
       </c>
       <c r="T10" s="4" t="n">
         <f aca="false">S10/N10</f>
-        <v>1.09259259259259</v>
+        <v>0.518518518518518</v>
       </c>
       <c r="U10" s="4" t="n">
         <f aca="false">S10/O10</f>
-        <v>1.63888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V10" s="4" t="n">
         <f aca="false">O10/N10</f>
@@ -690,16 +694,16 @@
         <v>38</v>
       </c>
       <c r="S11" s="0" t="n">
-        <f aca="false">SUM(C11:M11)</f>
-        <v>48</v>
+        <f aca="false">SUM(C11:J11)+L11-7+K11</f>
+        <v>26</v>
       </c>
       <c r="T11" s="4" t="n">
         <f aca="false">S11/N11</f>
-        <v>0.8</v>
+        <v>0.433333333333333</v>
       </c>
       <c r="U11" s="4" t="n">
         <f aca="false">S11/O11</f>
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="V11" s="4" t="n">
         <f aca="false">O11/N11</f>
@@ -760,16 +764,16 @@
         <v>41</v>
       </c>
       <c r="S12" s="0" t="n">
-        <f aca="false">SUM(C12:M12)</f>
-        <v>15</v>
+        <f aca="false">SUM(C12:J12)+L12-7+K12</f>
+        <v>3</v>
       </c>
       <c r="T12" s="4" t="n">
         <f aca="false">S12/N12</f>
-        <v>0.428571428571429</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="U12" s="4" t="n">
         <f aca="false">S12/O12</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="V12" s="4" t="n">
         <f aca="false">O12/N12</f>
@@ -830,16 +834,16 @@
         <v>43</v>
       </c>
       <c r="S13" s="0" t="n">
-        <f aca="false">SUM(C13:M13)</f>
-        <v>15</v>
+        <f aca="false">SUM(C13:J13)+L13-7+K13</f>
+        <v>3</v>
       </c>
       <c r="T13" s="4" t="n">
         <f aca="false">S13/N13</f>
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="U13" s="4" t="n">
         <f aca="false">S13/O13</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="V13" s="4" t="n">
         <f aca="false">O13/N13</f>
@@ -900,16 +904,16 @@
         <v>45</v>
       </c>
       <c r="S14" s="0" t="n">
-        <f aca="false">SUM(C14:M14)</f>
-        <v>21</v>
+        <f aca="false">SUM(C14:J14)+L14-7+K14</f>
+        <v>4</v>
       </c>
       <c r="T14" s="4" t="n">
         <f aca="false">S14/N14</f>
-        <v>0.525</v>
+        <v>0.1</v>
       </c>
       <c r="U14" s="4" t="n">
         <f aca="false">S14/O14</f>
-        <v>1.05</v>
+        <v>0.2</v>
       </c>
       <c r="V14" s="4" t="n">
         <f aca="false">O14/N14</f>
@@ -917,6 +921,16 @@
       </c>
       <c r="W14" s="0" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K21" s="0" t="n">
+        <f aca="false">-7</f>
+        <v>-7</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">K21+K8</f>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/Players/Kai/cost_value_hire.xlsx
+++ b/Players/Kai/cost_value_hire.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t xml:space="preserve">Kosten/Nutzen</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">kleiner ist besser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chance</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -179,10 +182,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0.00\ %"/>
+    <numFmt numFmtId="165" formatCode="0.00\ %"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00\ %"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -270,7 +274,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,11 +295,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -316,63 +324,65 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:Y15"/>
+  <dimension ref="B2:Z15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18:S20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V9" activeCellId="0" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="2.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="3.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="32.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="3.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="32.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O3" s="2" t="n">
+      <c r="P3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -449,171 +459,181 @@
       <c r="Y7" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="Z7" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
+      <c r="B8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="F8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="H8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N8" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="O8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="R8" s="4" t="n">
-        <f aca="false">P8/$O$3</f>
+      <c r="S8" s="5" t="n">
+        <f aca="false">Q8/$P$3</f>
         <v>1.875</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="0" t="n">
-        <f aca="false">(SUM(D8:K8)+M8-7+L8+(Q8/10))*N8</f>
+      <c r="U8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <f aca="false">(SUM(E8:L8)+N8-7+M8+(R8/10))*O8</f>
         <v>103.5</v>
       </c>
-      <c r="V8" s="4" t="n">
-        <f aca="false">U8/O8</f>
+      <c r="W8" s="5" t="n">
+        <f aca="false">V8/P8</f>
         <v>1.29375</v>
       </c>
-      <c r="W8" s="4" t="n">
-        <f aca="false">U8/P8</f>
+      <c r="X8" s="5" t="n">
+        <f aca="false">V8/Q8</f>
         <v>3.45</v>
       </c>
-      <c r="X8" s="6" t="n">
-        <f aca="false">P8/O8</f>
+      <c r="Y8" s="7" t="n">
+        <f aca="false">Q8/P8</f>
         <v>0.375</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
+      <c r="B9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="F9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="H9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N9" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="O9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="R9" s="4" t="n">
-        <f aca="false">P9/$O$3</f>
+      <c r="S9" s="5" t="n">
+        <f aca="false">Q9/$P$3</f>
         <v>2.1875</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="0" t="n">
-        <f aca="false">(SUM(D9:K9)+M9-7+L9+(Q9/10))*N9</f>
+      <c r="U9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">(SUM(E9:L9)+N9-7+M9+(R9/10))*O9</f>
         <v>148</v>
       </c>
-      <c r="V9" s="4" t="n">
-        <f aca="false">U9/O9</f>
+      <c r="W9" s="5" t="n">
+        <f aca="false">V9/P9</f>
         <v>1.64444444444444</v>
       </c>
-      <c r="W9" s="4" t="n">
-        <f aca="false">U9/P9</f>
+      <c r="X9" s="5" t="n">
+        <f aca="false">V9/Q9</f>
         <v>4.22857142857143</v>
       </c>
-      <c r="X9" s="6" t="n">
-        <f aca="false">P9/O9</f>
+      <c r="Y9" s="7" t="n">
+        <f aca="false">Q9/P9</f>
         <v>0.388888888888889</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="4" t="n">
+        <f aca="false">2/6</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>7.2</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="E10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>3</v>
@@ -625,149 +645,155 @@
         <v>3</v>
       </c>
       <c r="I10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="K10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O10" s="0" t="n">
-        <f aca="false">3*O3</f>
+      <c r="P10" s="0" t="n">
+        <f aca="false">3*P3</f>
         <v>48</v>
       </c>
-      <c r="P10" s="0" t="n">
-        <f aca="false">2*O3</f>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">2*P3</f>
         <v>32</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="R10" s="4" t="n">
-        <f aca="false">P10/$O$3</f>
+      <c r="S10" s="5" t="n">
+        <f aca="false">Q10/$P$3</f>
         <v>2</v>
       </c>
-      <c r="S10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="0" t="n">
-        <f aca="false">(SUM(D10:K10)+M10-7+L10+(Q10/10))*N10</f>
+      <c r="U10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">(SUM(E10:L10)+N10-7+M10+(R10/10))*O10</f>
         <v>180</v>
       </c>
-      <c r="V10" s="4" t="n">
-        <f aca="false">U10/O10</f>
+      <c r="W10" s="5" t="n">
+        <f aca="false">V10/P10</f>
         <v>3.75</v>
       </c>
-      <c r="W10" s="4" t="n">
-        <f aca="false">U10/P10</f>
+      <c r="X10" s="5" t="n">
+        <f aca="false">V10/Q10</f>
         <v>5.625</v>
       </c>
-      <c r="X10" s="6" t="n">
-        <f aca="false">P10/O10</f>
+      <c r="Y10" s="7" t="n">
+        <f aca="false">Q10/P10</f>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="M11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="O11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="R11" s="4" t="n">
-        <f aca="false">P11/$O$3</f>
+      <c r="S11" s="5" t="n">
+        <f aca="false">Q11/$P$3</f>
         <v>1.5625</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="0" t="n">
-        <f aca="false">(SUM(D11:K11)+M11-7+L11+(Q11/10))*N11</f>
+      <c r="U11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">(SUM(E11:L11)+N11-7+M11+(R11/10))*O11</f>
         <v>110</v>
       </c>
-      <c r="V11" s="4" t="n">
-        <f aca="false">U11/O11</f>
+      <c r="W11" s="5" t="n">
+        <f aca="false">V11/P11</f>
         <v>1.83333333333333</v>
       </c>
-      <c r="W11" s="4" t="n">
-        <f aca="false">U11/P11</f>
+      <c r="X11" s="5" t="n">
+        <f aca="false">V11/Q11</f>
         <v>4.4</v>
       </c>
-      <c r="X11" s="6" t="n">
-        <f aca="false">P11/O11</f>
+      <c r="Y11" s="7" t="n">
+        <f aca="false">Q11/P11</f>
         <v>0.416666666666667</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
+      <c r="B12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
@@ -791,59 +817,62 @@
         <v>0</v>
       </c>
       <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R12" s="4" t="n">
-        <f aca="false">P12/$O$3</f>
+      <c r="S12" s="5" t="n">
+        <f aca="false">Q12/$P$3</f>
         <v>0.9375</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="0" t="n">
-        <f aca="false">(SUM(D12:K12)+M12-7+L12+(Q12/10))*N12</f>
+      <c r="U12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">(SUM(E12:L12)+N12-7+M12+(R12/10))*O12</f>
         <v>8</v>
       </c>
-      <c r="V12" s="4" t="n">
-        <f aca="false">U12/O12</f>
+      <c r="W12" s="5" t="n">
+        <f aca="false">V12/P12</f>
         <v>0.228571428571429</v>
       </c>
-      <c r="W12" s="4" t="n">
-        <f aca="false">U12/P12</f>
+      <c r="X12" s="5" t="n">
+        <f aca="false">V12/Q12</f>
         <v>0.533333333333333</v>
       </c>
-      <c r="X12" s="6" t="n">
-        <f aca="false">P12/O12</f>
+      <c r="Y12" s="7" t="n">
+        <f aca="false">Q12/P12</f>
         <v>0.428571428571429</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
+      <c r="B13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
@@ -867,59 +896,62 @@
         <v>0</v>
       </c>
       <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R13" s="4" t="n">
-        <f aca="false">P13/$O$3</f>
+      <c r="S13" s="5" t="n">
+        <f aca="false">Q13/$P$3</f>
         <v>0.9375</v>
       </c>
-      <c r="S13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <f aca="false">(SUM(D13:K13)+M13-7+L13+(Q13/10))*N13</f>
-        <v>4</v>
-      </c>
-      <c r="V13" s="4" t="n">
-        <f aca="false">U13/O13</f>
+      <c r="T13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <f aca="false">(SUM(E13:L13)+N13-7+M13+(R13/10))*O13</f>
+        <v>4</v>
+      </c>
+      <c r="W13" s="5" t="n">
+        <f aca="false">V13/P13</f>
         <v>0.2</v>
       </c>
-      <c r="W13" s="4" t="n">
-        <f aca="false">U13/P13</f>
+      <c r="X13" s="5" t="n">
+        <f aca="false">V13/Q13</f>
         <v>0.266666666666667</v>
       </c>
-      <c r="X13" s="6" t="n">
-        <f aca="false">P13/O13</f>
+      <c r="Y13" s="7" t="n">
+        <f aca="false">Q13/P13</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
+      <c r="B14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0</v>
@@ -943,128 +975,134 @@
         <v>0</v>
       </c>
       <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>40</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>20</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R14" s="4" t="n">
-        <f aca="false">P14/$O$3</f>
+      <c r="R14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <f aca="false">Q14/$P$3</f>
         <v>1.25</v>
       </c>
-      <c r="S14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <f aca="false">(SUM(D14:K14)+M14-7+L14+(Q14/10))*N14</f>
+      <c r="T14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <f aca="false">(SUM(E14:L14)+N14-7+M14+(R14/10))*O14</f>
         <v>12</v>
       </c>
-      <c r="V14" s="4" t="n">
-        <f aca="false">U14/O14</f>
+      <c r="W14" s="5" t="n">
+        <f aca="false">V14/P14</f>
         <v>0.3</v>
       </c>
-      <c r="W14" s="4" t="n">
-        <f aca="false">U14/P14</f>
+      <c r="X14" s="5" t="n">
+        <f aca="false">V14/Q14</f>
         <v>0.6</v>
       </c>
-      <c r="X14" s="6" t="n">
-        <f aca="false">P14/O14</f>
+      <c r="Y14" s="7" t="n">
+        <f aca="false">Q14/P14</f>
         <v>0.5</v>
       </c>
-      <c r="Y14" s="0" t="s">
-        <v>48</v>
+      <c r="Z14" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="4" t="n">
+        <f aca="false">3/36</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="F15" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="K15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="O15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="P15" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R15" s="4" t="n">
-        <f aca="false">P15/$O$3</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>42</v>
+      <c r="S15" s="5" t="n">
+        <f aca="false">Q15/$P$3</f>
+        <v>0</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <f aca="false">(SUM(D15:K15)+M15-7+L15+(Q15/10))*N15</f>
+        <v>43</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <f aca="false">(SUM(E15:L15)+N15-7+M15+(R15/10))*O15</f>
         <v>57</v>
       </c>
-      <c r="V15" s="4" t="n">
-        <f aca="false">U15/O15</f>
+      <c r="W15" s="5" t="n">
+        <f aca="false">V15/P15</f>
         <v>0.633333333333333</v>
       </c>
-      <c r="W15" s="4" t="e">
-        <f aca="false">U15/P15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X15" s="6" t="n">
-        <f aca="false">P15/O15</f>
+      <c r="X15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7" t="n">
+        <f aca="false">Q15/P15</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V8:W15">
+  <conditionalFormatting sqref="W8:X15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1076,7 +1114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X8:X15">
+  <conditionalFormatting sqref="Y8:Y15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1088,7 +1126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N15">
+  <conditionalFormatting sqref="O8:O15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1100,7 +1138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R15">
+  <conditionalFormatting sqref="S8:S15">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1112,7 +1150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:M15">
+  <conditionalFormatting sqref="E8:N15">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1124,7 +1162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:L15">
+  <conditionalFormatting sqref="E8:M15">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1134,7 +1172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U15">
+  <conditionalFormatting sqref="V8:V15">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1144,7 +1182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C15">
+  <conditionalFormatting sqref="D8:D15">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1156,7 +1194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O15">
+  <conditionalFormatting sqref="P8:P15">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1168,7 +1206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P15">
+  <conditionalFormatting sqref="Q8:Q15">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1180,7 +1218,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q15">
+  <conditionalFormatting sqref="R8:R15">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1189,6 +1227,18 @@
         <color rgb="FF407927"/>
         <color rgb="FF89C765"/>
         <color rgb="FFE0EFD4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B15">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="0.5"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF04E4D"/>
+        <color rgb="FFFFF450"/>
+        <color rgb="FF89C765"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Players/Kai/cost_value_hire.xlsx
+++ b/Players/Kai/cost_value_hire.xlsx
@@ -344,7 +344,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,29 +367,29 @@
   </sheetPr>
   <dimension ref="B2:Z24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="32.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15"/>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>3</v>
@@ -1207,11 +1207,11 @@
       </c>
       <c r="V16" s="0" t="n">
         <f aca="false">(SUM(E16:L16)+N16-7+M16+(R16/10))*O16</f>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="W16" s="5" t="n">
         <f aca="false">V16/P16</f>
-        <v>0.633333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="X16" s="5" t="n">
         <v>0</v>
